--- a/Result/Q0_1_particle_count_time_comparison.xlsx
+++ b/Result/Q0_1_particle_count_time_comparison.xlsx
@@ -470,19 +470,19 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>0.003066539764404297</v>
+        <v>0.003192265510559082</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05230700969696045</v>
+        <v>0.05552779483795166</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05630767345428467</v>
+        <v>0.05773908281326294</v>
       </c>
       <c r="E2" t="n">
-        <v>0.003028273582458496</v>
+        <v>0.003424192905426025</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0074005126953125</v>
+        <v>0.00804411220550537</v>
       </c>
     </row>
     <row r="3">
@@ -490,19 +490,19 @@
         <v>30</v>
       </c>
       <c r="B3" t="n">
-        <v>0.003340244293212891</v>
+        <v>0.003635462760925293</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1504977941513062</v>
+        <v>0.1536756520271301</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1708619594573975</v>
+        <v>0.1673967261314392</v>
       </c>
       <c r="E3" t="n">
-        <v>0.003218650817871094</v>
+        <v>0.004942094802856446</v>
       </c>
       <c r="F3" t="n">
-        <v>0.007961511611938477</v>
+        <v>0.008266862392425536</v>
       </c>
     </row>
     <row r="4">
@@ -510,19 +510,19 @@
         <v>50</v>
       </c>
       <c r="B4" t="n">
-        <v>0.003038167953491211</v>
+        <v>0.003695087909698486</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2500237226486206</v>
+        <v>0.2554643354415894</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2817991971969604</v>
+        <v>0.27717950963974</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003011703491210938</v>
+        <v>0.005236147403717041</v>
       </c>
       <c r="F4" t="n">
-        <v>0.008252501487731934</v>
+        <v>0.008372877597808838</v>
       </c>
     </row>
     <row r="5">
@@ -530,19 +530,19 @@
         <v>100</v>
       </c>
       <c r="B5" t="n">
-        <v>0.003042459487915039</v>
+        <v>0.003981784343719482</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5037980079650879</v>
+        <v>0.5045665678977966</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5662815570831299</v>
+        <v>0.5473496742248535</v>
       </c>
       <c r="E5" t="n">
-        <v>0.003822207450866699</v>
+        <v>0.005929654598236084</v>
       </c>
       <c r="F5" t="n">
-        <v>0.008908867835998535</v>
+        <v>0.008598854064941406</v>
       </c>
     </row>
     <row r="6">
@@ -550,19 +550,19 @@
         <v>300</v>
       </c>
       <c r="B6" t="n">
-        <v>0.006116151809692383</v>
+        <v>0.005127833843231201</v>
       </c>
       <c r="C6" t="n">
-        <v>1.551066398620605</v>
+        <v>1.509272452354431</v>
       </c>
       <c r="D6" t="n">
-        <v>1.7051602602005</v>
+        <v>1.632723394870758</v>
       </c>
       <c r="E6" t="n">
-        <v>0.007645964622497559</v>
+        <v>0.008070683956146241</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01008141040802002</v>
+        <v>0.01026925039291382</v>
       </c>
     </row>
     <row r="7">
@@ -570,19 +570,19 @@
         <v>500</v>
       </c>
       <c r="B7" t="n">
-        <v>0.005396604537963867</v>
+        <v>0.006149495124816894</v>
       </c>
       <c r="C7" t="n">
-        <v>2.572356581687927</v>
+        <v>2.524602248668671</v>
       </c>
       <c r="D7" t="n">
-        <v>2.834680676460266</v>
+        <v>2.727124840736389</v>
       </c>
       <c r="E7" t="n">
-        <v>0.007315993309020996</v>
+        <v>0.0105269832611084</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01149988174438477</v>
+        <v>0.01201751136779785</v>
       </c>
     </row>
   </sheetData>
